--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -451,995 +451,1345 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F35"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>基金代码</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
           <t>006022</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="C11" t="inlineStr">
         <is>
           <t>富国大盘价值量化精选混合</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>94.09</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F11" t="inlineStr">
         <is>
           <t>1.88</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
         <v>9</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
         <is>
           <t>006429</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="C14" t="inlineStr">
         <is>
           <t>诺安恒鑫混合</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
         <is>
           <t>89.13</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>3.80</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
         <v>5</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
         <is>
           <t>006531</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C35" t="inlineStr">
         <is>
           <t>华泰柏瑞量化驱动灵活配置混合C</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
         <is>
           <t>93.20</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1.42</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>7</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>90.11</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>202027</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>002804</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>79.36</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000877</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>001074</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001277</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>博时国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>620001</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>金元顺安宝石动力混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>60.39</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001226</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>中邮稳健添利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>006034</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>富国MSCI中国A股国际通指数增强</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="1" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="1" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="1" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>161037</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="1" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="1" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="1" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="1" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="1" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="1" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>9</v>
-      </c>
-    </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -1449,7 +1799,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F75"/>
+  <dimension ref="A1:H75"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1470,15 +1820,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1490,26 +1850,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>003734</t>
+          <t>004997</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>万家瑞盈灵活配置混合A</t>
+          <t>广发高端制造股票A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>257.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>13.0780</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1518,26 +1888,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>003735</t>
+          <t>011121</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>万家瑞盈灵活配置混合C</t>
+          <t>广发兴诚混合A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>21.13</t>
+          <t>107.70</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.76</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>5.5142</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -1546,26 +1926,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>001528</t>
+          <t>011130</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>诺安先进制造股票</t>
+          <t>广发兴诚混合C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>87.66</t>
+          <t>61.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>62.91</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.12</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.1601</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -1574,26 +1964,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>320015</t>
+          <t>001606</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>诺安行业轮动混合</t>
+          <t>农银汇理工业4.0灵活配置混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>85.30</t>
+          <t>50.89</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.85</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>93.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0661</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -1602,26 +2002,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>004206</t>
+          <t>002132</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>华商元亨灵活配置混合</t>
+          <t>广发鑫享灵活配置混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>29.95</t>
+          <t>37.98</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>9</v>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9522</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1630,26 +2040,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005341</t>
+          <t>202005</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合A</t>
+          <t>南方成份精选混合</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>38.27</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>7</v>
+          <t>86.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.2706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="8">
@@ -1658,26 +2078,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>005342</t>
+          <t>000336</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>长安裕泰灵活配置混合C</t>
+          <t>农银研究精选混合</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>88.73</t>
+          <t>30.43</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>3.74</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>7</v>
+          <t>92.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.1959</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="9">
@@ -1686,26 +2116,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>004212</t>
+          <t>002989</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>中融量化智选混合A</t>
+          <t>融通通乾研究精选灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>19.67</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>7</v>
+          <t>94.88</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.0327</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="10">
@@ -1714,26 +2154,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>004783</t>
+          <t>010160</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>中融量化智选混合C</t>
+          <t>广发高端制造股票C</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>91.40</t>
+          <t>19.30</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>7</v>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9804</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -1742,26 +2192,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>005743</t>
+          <t>006371</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>长安裕隆灵活配置混合A</t>
+          <t>长安鑫盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>16.93</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>10</v>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.5468</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1770,26 +2230,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005744</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长安裕隆灵活配置混合C</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>84.60</t>
+          <t>7.35</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>3.11</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>10</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.4954</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="13">
@@ -1798,26 +2268,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>006371</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>长安鑫盈灵活配置混合A</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F13" t="n">
-        <v>8</v>
+          <t>70.48</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4577</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="14">
@@ -1826,26 +2306,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>006372</t>
+          <t>008382</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长安鑫盈灵活配置混合C</t>
+          <t>融通产业趋势股票</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>76.52</t>
+          <t>8.36</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>3.23</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>8</v>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.4188</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="15">
@@ -1854,26 +2344,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005049</t>
+          <t>002504</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合A</t>
+          <t>鹏华金鼎灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
-        <v>7</v>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.3391</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1882,26 +2382,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005050</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长安鑫旺价值灵活配置混合C</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>87.97</t>
+          <t>4.25</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.65</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>7</v>
+          <t>94.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>7.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.3077</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -1910,26 +2420,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>540004</t>
+          <t>540002</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>汇丰晋信2026周期混合</t>
+          <t>汇丰晋信龙腾混合</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>61.53</t>
+          <t>7.56</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>8</v>
+          <t>88.77</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2313</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="18">
@@ -1938,26 +2458,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>202027</t>
+          <t>160613</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合A</t>
+          <t>鹏华盛世创新混合(LOF)</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>3.42</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>5</v>
+          <t>92.01</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.23</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2131</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="19">
@@ -1966,26 +2496,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>005207</t>
+          <t>006977</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>南方高端装备灵活配置混合C</t>
+          <t>农银汇理海棠三年定期开放混合</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>89.79</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>6.74</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>89.47</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1994,26 +2534,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>006857</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合A</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>10.71</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F20" t="n">
-        <v>2</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.2121</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="21">
@@ -2022,26 +2572,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>006858</t>
+          <t>005743</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>蜂巢卓睿灵活配置混合C</t>
+          <t>长安裕隆灵活配置混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>61.80</t>
+          <t>6.55</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>2.94</t>
-        </is>
-      </c>
-      <c r="F21" t="n">
-        <v>2</v>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2037</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="22">
@@ -2050,26 +2610,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>000042</t>
+          <t>320011</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
+          <t>诺安中小盘精选混合</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>4.83</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F22" t="n">
-        <v>6</v>
+          <t>87.12</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1918</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="23">
@@ -2078,26 +2648,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>003184</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>94.48</t>
+          <t>4.31</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="F23" t="n">
-        <v>6</v>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1776</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="24">
@@ -2106,26 +2686,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>008437</t>
+          <t>006022</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合A</t>
+          <t>富国大盘价值量化精选混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>6.08</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F24" t="n">
-        <v>8</v>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1465</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -2134,26 +2724,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>008438</t>
+          <t>010551</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>九泰行业优选灵活配置混合C</t>
+          <t>淳厚欣颐一年持有期混合</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>41.79</t>
+          <t>5.74</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>2.33</t>
-        </is>
-      </c>
-      <c r="F25" t="n">
-        <v>8</v>
+          <t>66.79</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1269</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="26">
@@ -2162,25 +2762,35 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>008441</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合A</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>1.05</t>
         </is>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F26" t="n">
+          <t>95.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0990</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2190,26 +2800,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>008442</t>
+          <t>001277</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>九泰科新优享灵活配置混合C</t>
+          <t>博时国企改革主题股票</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>32.12</t>
+          <t>4.56</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>7.66</t>
-        </is>
-      </c>
-      <c r="F27" t="n">
-        <v>1</v>
+          <t>88.32</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0889</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="28">
@@ -2218,26 +2838,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>000066</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>诺安鸿鑫混合</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>92.32</t>
+          <t>2.38</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>5.42</t>
-        </is>
-      </c>
-      <c r="F28" t="n">
-        <v>2</v>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0881</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="29">
@@ -2246,25 +2876,35 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>006022</t>
+          <t>002252</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>富国大盘价值量化精选混合</t>
+          <t>融通成长30灵活配置混合</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>93.69</t>
+          <t>1.78</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>2.41</t>
-        </is>
-      </c>
-      <c r="F29" t="n">
+          <t>92.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.94</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
         <v>6</v>
       </c>
     </row>
@@ -2274,26 +2914,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>006034</t>
+          <t>160638</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>富国MSCI中国A股国际通指数增强</t>
+          <t>鹏华中证一带一路主题指数（LOF）</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>92.49</t>
+          <t>3.06</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>1.58</t>
-        </is>
-      </c>
-      <c r="F30" t="n">
-        <v>9</v>
+          <t>94.81</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0878</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="31">
@@ -2302,26 +2952,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>000336</t>
+          <t>005744</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>农银研究精选混合</t>
+          <t>长安裕隆灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>92.90</t>
+          <t>2.67</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>8</v>
+          <t>84.60</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0830</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="32">
@@ -2330,26 +2990,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>320006</t>
+          <t>515990</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>诺安灵活配置混合</t>
+          <t>汇添富中证国企一带一路ETF</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>70.48</t>
+          <t>5.66</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>4.09</t>
-        </is>
-      </c>
-      <c r="F32" t="n">
-        <v>7</v>
+          <t>97.53</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0781</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="33">
@@ -2358,26 +3028,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>320011</t>
+          <t>006372</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>诺安中小盘精选混合</t>
+          <t>长安鑫盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>87.12</t>
+          <t>2.37</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>3.97</t>
-        </is>
-      </c>
-      <c r="F33" t="n">
-        <v>9</v>
+          <t>76.52</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0766</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="34">
@@ -2386,26 +3066,36 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>006429</t>
+          <t>590006</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>诺安恒鑫混合</t>
+          <t>中邮中小盘灵活配置混合</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>86.72</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>4.03</t>
-        </is>
-      </c>
-      <c r="F34" t="n">
-        <v>8</v>
+          <t>72.23</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0764</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="35">
@@ -2414,26 +3104,36 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>000706</t>
+          <t>004206</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>中邮多策略灵活配置混合</t>
+          <t>华商元亨灵活配置混合</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>59.43</t>
+          <t>5.83</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>3.81</t>
-        </is>
-      </c>
-      <c r="F35" t="n">
-        <v>4</v>
+          <t>29.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0723</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="36">
@@ -2442,26 +3142,36 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>006785</t>
+          <t>002067</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>东方量化多策略混合</t>
+          <t>诺安精选回报灵活配置混合</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>88.38</t>
+          <t>5.88</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>6.42</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>3</v>
+          <t>21.78</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0641</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="37">
@@ -2470,26 +3180,36 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>006977</t>
+          <t>001430</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>农银汇理海棠三年定期开放混合</t>
+          <t>中邮乐享收益灵活配置混合</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>89.47</t>
+          <t>6.13</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>4.11</t>
-        </is>
-      </c>
-      <c r="F37" t="n">
-        <v>9</v>
+          <t>31.96</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0638</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="38">
@@ -2498,26 +3218,36 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>010551</t>
+          <t>001528</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>淳厚欣颐一年持有期混合</t>
+          <t>诺安先进制造股票</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>66.79</t>
+          <t>1.67</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="F38" t="n">
-        <v>10</v>
+          <t>87.66</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="39">
@@ -2526,26 +3256,36 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>007137</t>
+          <t>005341</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票A</t>
+          <t>长安裕泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>1.70</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F39" t="n">
-        <v>4</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="40">
@@ -2554,26 +3294,36 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>007138</t>
+          <t>320015</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>鹏扬元合量化大盘优选股票C</t>
+          <t>诺安行业轮动混合</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>90.71</t>
+          <t>1.65</t>
         </is>
       </c>
       <c r="E40" t="inlineStr">
         <is>
-          <t>5.00</t>
-        </is>
-      </c>
-      <c r="F40" t="n">
-        <v>4</v>
+          <t>85.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="41">
@@ -2582,26 +3332,36 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>001226</t>
+          <t>005049</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>中邮稳健添利灵活配置混合</t>
+          <t>长安鑫旺价值灵活配置混合A</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>93.89</t>
+          <t>1.74</t>
         </is>
       </c>
       <c r="E41" t="inlineStr">
         <is>
-          <t>5.05</t>
-        </is>
-      </c>
-      <c r="F41" t="n">
-        <v>2</v>
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0635</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="42">
@@ -2610,26 +3370,36 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>001277</t>
+          <t>006429</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>博时国企改革主题股票</t>
+          <t>诺安恒鑫混合</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>88.32</t>
+          <t>1.44</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
         <is>
-          <t>1.95</t>
-        </is>
-      </c>
-      <c r="F42" t="n">
-        <v>2</v>
+          <t>86.72</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="43">
@@ -2638,26 +3408,36 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>000066</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>诺安鸿鑫混合</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>1.01</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F43" t="n">
-        <v>3</v>
+          <t>92.32</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.42</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0547</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="44">
@@ -2666,26 +3446,36 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>005207</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>南方高端装备灵活配置混合C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>62.91</t>
+          <t>0.74</t>
         </is>
       </c>
       <c r="E44" t="inlineStr">
         <is>
-          <t>5.12</t>
-        </is>
-      </c>
-      <c r="F44" t="n">
-        <v>3</v>
+          <t>89.79</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.74</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0499</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="45">
@@ -2694,26 +3484,36 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>001430</t>
+          <t>003734</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>中邮乐享收益灵活配置混合</t>
+          <t>万家瑞盈灵活配置混合A</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>31.96</t>
+          <t>5.86</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0445</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="46">
@@ -2722,25 +3522,35 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>080005</t>
+          <t>005050</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>长盛量化红利混合</t>
+          <t>长安鑫旺价值灵活配置混合C</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>94.19</t>
+          <t>1.16</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>1.67</t>
-        </is>
-      </c>
-      <c r="F46" t="n">
+          <t>87.97</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
         <v>7</v>
       </c>
     </row>
@@ -2750,26 +3560,36 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>005342</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>长安裕泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>99.38</t>
+          <t>1.11</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>7.14</t>
-        </is>
-      </c>
-      <c r="F47" t="n">
-        <v>2</v>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="48">
@@ -2778,26 +3598,36 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>515990</t>
+          <t>515870</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>汇添富中证国企一带一路ETF</t>
+          <t>嘉实中证先进制造100策略ETF</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>97.53</t>
+          <t>0.54</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>1.38</t>
-        </is>
-      </c>
-      <c r="F48" t="n">
-        <v>10</v>
+          <t>99.38</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0386</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="49">
@@ -2806,26 +3636,36 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>001606</t>
+          <t>540004</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>农银汇理工业4.0灵活配置混合</t>
+          <t>汇丰晋信2026周期混合</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>93.22</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>4.06</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>9</v>
+          <t>61.53</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="50">
@@ -2834,26 +3674,36 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>519677</t>
+          <t>002096</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+          <t>博时新收益灵活配置混合C</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>0.80</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>1.12</t>
-        </is>
-      </c>
-      <c r="F50" t="n">
-        <v>9</v>
+          <t>65.73</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="51">
@@ -2862,26 +3712,36 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>001830</t>
+          <t>001226</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>融通跨界成长灵活配置混合</t>
+          <t>中邮稳健添利灵活配置混合</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>93.04</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>3.34</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>10</v>
+          <t>93.89</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0318</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="52">
@@ -2890,26 +3750,36 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>519983</t>
+          <t>620001</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>长信量化先锋混合A</t>
+          <t>金元顺安宝石动力混合</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>0.82</t>
         </is>
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F52" t="n">
-        <v>4</v>
+          <t>58.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="53">
@@ -2918,26 +3788,36 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>004221</t>
+          <t>519677</t>
         </is>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>长信量化先锋混合C</t>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>92.31</t>
+          <t>2.56</t>
         </is>
       </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="F53" t="n">
-        <v>4</v>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="54">
@@ -2946,26 +3826,36 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>540002</t>
+          <t>000042</t>
         </is>
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>汇丰晋信龙腾混合</t>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强A</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>88.77</t>
+          <t>1.98</t>
         </is>
       </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>3.06</t>
-        </is>
-      </c>
-      <c r="F54" t="n">
-        <v>10</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="55">
@@ -2974,26 +3864,36 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>160613</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>鹏华盛世创新混合(LOF)</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>92.01</t>
+          <t>1.52</t>
         </is>
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>6.23</t>
-        </is>
-      </c>
-      <c r="F55" t="n">
-        <v>1</v>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>1.67</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="56">
@@ -3002,26 +3902,36 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>002067</t>
+          <t>167503</t>
         </is>
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>诺安精选回报灵活配置混合</t>
+          <t>安信中证一带一路主题指数</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>21.78</t>
+          <t>0.86</t>
         </is>
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="F56" t="n">
-        <v>9</v>
+          <t>94.72</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="57">
@@ -3030,26 +3940,36 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>002095</t>
+          <t>007137</t>
         </is>
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合A</t>
+          <t>鹏扬元合量化大盘优选股票A</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F57" t="n">
-        <v>7</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="58">
@@ -3058,26 +3978,36 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>002096</t>
+          <t>006034</t>
         </is>
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>博时新收益灵活配置混合C</t>
+          <t>富国MSCI中国A股国际通指数增强</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>65.73</t>
+          <t>1.35</t>
         </is>
       </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>4.12</t>
-        </is>
-      </c>
-      <c r="F58" t="n">
-        <v>7</v>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0213</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="59">
@@ -3086,26 +4016,36 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>160638</t>
+          <t>003735</t>
         </is>
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>鹏华中证一带一路主题指数（LOF）</t>
+          <t>万家瑞盈灵活配置混合C</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>94.81</t>
+          <t>2.33</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>2.87</t>
-        </is>
-      </c>
-      <c r="F59" t="n">
-        <v>6</v>
+          <t>21.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="60">
@@ -3114,26 +4054,36 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>002132</t>
+          <t>008437</t>
         </is>
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>广发鑫享灵活配置混合</t>
+          <t>九泰行业优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>85.41</t>
+          <t>0.70</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>5.14</t>
-        </is>
-      </c>
-      <c r="F60" t="n">
-        <v>5</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="61">
@@ -3142,26 +4092,36 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>590006</t>
+          <t>007138</t>
         </is>
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>中邮中小盘灵活配置混合</t>
+          <t>鹏扬元合量化大盘优选股票C</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>72.23</t>
+          <t>0.32</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>2.72</t>
-        </is>
-      </c>
-      <c r="F61" t="n">
-        <v>9</v>
+          <t>90.71</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="62">
@@ -3170,26 +4130,36 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>620001</t>
+          <t>001830</t>
         </is>
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>金元顺安宝石动力混合</t>
+          <t>融通跨界成长灵活配置混合</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>58.11</t>
+          <t>0.42</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>3.76</t>
-        </is>
-      </c>
-      <c r="F62" t="n">
-        <v>8</v>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="63">
@@ -3198,26 +4168,36 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>002252</t>
+          <t>002505</t>
         </is>
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t>融通成长30灵活配置混合</t>
+          <t>鹏华金鼎灵活配置混合C</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>92.44</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>4.94</t>
-        </is>
-      </c>
-      <c r="F63" t="n">
-        <v>6</v>
+          <t>77.68</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.46</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0060</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="64">
@@ -3226,26 +4206,36 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>002504</t>
+          <t>008438</t>
         </is>
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合A</t>
+          <t>九泰行业优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>77.68</t>
+          <t>0.23</t>
         </is>
       </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F64" t="n">
-        <v>3</v>
+          <t>41.79</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0054</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="65">
@@ -3254,26 +4244,36 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>002505</t>
+          <t>008890</t>
         </is>
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>鹏华金鼎灵活配置混合C</t>
+          <t>中邮价值优选一年定期开放灵活配置混合</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>77.68</t>
+          <t>0.14</t>
         </is>
       </c>
       <c r="E65" t="inlineStr">
         <is>
-          <t>5.46</t>
-        </is>
-      </c>
-      <c r="F65" t="n">
-        <v>3</v>
+          <t>41.82</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="66">
@@ -3282,26 +4282,36 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>167503</t>
+          <t>006857</t>
         </is>
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t>安信中证一带一路主题指数</t>
+          <t>蜂巢卓睿灵活配置混合A</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>94.72</t>
+          <t>0.16</t>
         </is>
       </c>
       <c r="E66" t="inlineStr">
         <is>
-          <t>2.85</t>
-        </is>
-      </c>
-      <c r="F66" t="n">
-        <v>6</v>
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="67">
@@ -3310,26 +4320,36 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>008890</t>
+          <t>006785</t>
         </is>
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t>中邮价值优选一年定期开放灵活配置混合</t>
+          <t>东方量化多策略混合</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>41.82</t>
+          <t>0.04</t>
         </is>
       </c>
       <c r="E67" t="inlineStr">
         <is>
-          <t>3.59</t>
-        </is>
-      </c>
-      <c r="F67" t="n">
-        <v>4</v>
+          <t>88.38</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>6.42</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="68">
@@ -3338,26 +4358,36 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>202005</t>
+          <t>004212</t>
         </is>
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t>南方成份精选混合</t>
+          <t>中融量化智选混合A</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>86.51</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="F68" t="n">
-        <v>9</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="69">
@@ -3366,26 +4396,36 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>009023</t>
+          <t>008441</t>
         </is>
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t>鹏华稳健回报混合</t>
+          <t>九泰科新优享灵活配置混合A</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>94.12</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>7.24</t>
-        </is>
-      </c>
-      <c r="F69" t="n">
-        <v>3</v>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -3394,26 +4434,36 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>002989</t>
+          <t>006858</t>
         </is>
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t>融通通乾研究精选灵活配置混合</t>
+          <t>蜂巢卓睿灵活配置混合C</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>94.88</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="F70" t="n">
-        <v>10</v>
+          <t>61.80</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="71">
@@ -3422,26 +4472,36 @@
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>008134</t>
+          <t>008442</t>
         </is>
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t>鹏华优选价值股票</t>
+          <t>九泰科新优享灵活配置混合C</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>93.88</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>3.70</t>
-        </is>
-      </c>
-      <c r="F71" t="n">
-        <v>10</v>
+          <t>32.12</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -3450,26 +4510,36 @@
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>008382</t>
+          <t>000706</t>
         </is>
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t>融通产业趋势股票</t>
+          <t>中邮多策略灵活配置混合</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>95.01</t>
+          <t>0.01</t>
         </is>
       </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>5.01</t>
-        </is>
-      </c>
-      <c r="F72" t="n">
-        <v>10</v>
+          <t>59.43</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="73">
@@ -3478,26 +4548,36 @@
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>004221</t>
         </is>
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>长信量化先锋混合C</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>94.30</t>
+          <t>0.02</t>
         </is>
       </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F73" t="n">
-        <v>8</v>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="74">
@@ -3506,26 +4586,30 @@
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>004783</t>
         </is>
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
-        </is>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>94.30</t>
-        </is>
-      </c>
+          <t>中融量化智选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>5.08</t>
-        </is>
-      </c>
-      <c r="F74" t="n">
-        <v>8</v>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="75">
@@ -3534,26 +4618,30 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>009188</t>
+          <t>003184</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>95.13</t>
-        </is>
-      </c>
+          <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>9.43</t>
-        </is>
-      </c>
-      <c r="F75" t="n">
-        <v>1</v>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4594,7 +4595,6 @@
           <t>中融量化智选混合C</t>
         </is>
       </c>
-      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>91.40</t>
@@ -4626,7 +4626,6 @@
           <t>中证财通中国可持续发展100 (ECPI ESG) 指数增强C</t>
         </is>
       </c>
-      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>94.48</t>
@@ -4642,6 +4641,556 @@
       </c>
       <c r="H75" t="n">
         <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5196,4 +5197,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5709,4 +5710,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>13</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>74</v>
+      </c>
+      <c r="D4" t="n">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>34</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -5718,7 +5719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5729,17 +5730,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -5749,14 +5770,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.38</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -5765,14 +5808,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>13</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.94</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -5781,14 +5846,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>74</v>
-      </c>
-      <c r="D4" t="n">
-        <v>36.46</v>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="5">
@@ -5797,13 +5884,227 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>6</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>13</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>74</v>
+      </c>
+      <c r="D5" t="n">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>34</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>3.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6003,7 +6004,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6014,17 +6015,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6034,14 +6055,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>6</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.77</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -6050,14 +6093,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.38</v>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="4">
@@ -6066,14 +6131,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>13</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.94</v>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -6082,14 +6169,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>74</v>
-      </c>
-      <c r="D5" t="n">
-        <v>36.46</v>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6098,13 +6207,433 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>12</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>6</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>12</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>13</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>74</v>
+      </c>
+      <c r="D6" t="n">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>34</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>3.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6516,7 +6517,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6527,17 +6528,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6547,14 +6568,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>12</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.05</v>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -6563,14 +6606,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>6</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.77</v>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -6579,14 +6644,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.38</v>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6595,14 +6682,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>13</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.94</v>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="6">
@@ -6611,14 +6720,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>74</v>
-      </c>
-      <c r="D6" t="n">
-        <v>36.46</v>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6627,13 +6758,221 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.94</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>34</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>3.06</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -6,14 +6,14 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H35"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,37 +468,17 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>基金代码</t>
+          <t>日期</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>基金名称</t>
+          <t>持有数量(只)</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
           <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -508,36 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3591</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
         <v>7</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.72</v>
       </c>
     </row>
     <row r="3">
@@ -546,36 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3570</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.05</v>
       </c>
     </row>
     <row r="4">
@@ -584,36 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3193</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>6</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.77</v>
       </c>
     </row>
     <row r="5">
@@ -622,36 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>202027</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2864</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.38</v>
       </c>
     </row>
     <row r="6">
@@ -660,36 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1981</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>13</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.94</v>
       </c>
     </row>
     <row r="7">
@@ -698,36 +568,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1622</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>74</v>
+      </c>
+      <c r="D7" t="n">
+        <v>36.46</v>
       </c>
     </row>
     <row r="8">
@@ -736,1062 +584,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>001277</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1452</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1387</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006022</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1141</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000877</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0757</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001074</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002804</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001226</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中邮稳健添利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>620001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金元顺安宝石动力混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>60.39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006034</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国MSCI中国A股国际通指数增强</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>161037</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006531</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>34</v>
+      </c>
+      <c r="D8" t="n">
+        <v>3.06</v>
       </c>
     </row>
   </sheetData>
@@ -1800,6 +600,2186 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>14.99</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.39</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.5351</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0846</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>98.80</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0127</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>45.16</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.41</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.55</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4393</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.64</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1916</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.61</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1369</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>006977</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>农银汇理海棠三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>63.10</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.1137</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0584</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>85.51</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.78</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0254</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0185</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.15</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0105</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>090011</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>大成核心双动力混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>161718</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>招商沪深300高贝塔指数</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.84</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4237</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>4.52</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.22</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1907</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0763</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.61</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0554</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>98.62</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0199</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>63.00</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009686</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>15.11</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4216</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.31</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3428</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.80</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1922</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009500</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0917</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>86.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0860</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0726</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.93</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0633</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.44</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>80.22</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0242</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009687</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华夏磐利一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>63.68</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009501</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>国寿安保高股息混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>67.95</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>004997</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>广发高端制造股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>219.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>11.3703</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>011121</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>广发兴诚混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>94.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>6.5722</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>011130</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>广发兴诚混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>52.52</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.10</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.6449</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010160</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>广发高端制造股票C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.04</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.8325</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.15</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2484</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华中证基建交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>96.47</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.82</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1071</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008347</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0491</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>1.32</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.97</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0462</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>98.26</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>009700</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长江添利混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0129</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>008348</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投价值甄选混合C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>79.54</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009701</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长江添利混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>21.08</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4653,13 +5633,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:H35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4710,32 +5690,32 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004997</t>
+          <t>009023</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>广发高端制造股票A</t>
+          <t>鹏华稳健回报混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>219.08</t>
+          <t>6.96</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>93.69</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.16</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>11.3703</t>
+          <t>0.3591</t>
         </is>
       </c>
       <c r="H2" t="n">
@@ -4748,36 +5728,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>011121</t>
+          <t>320006</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>广发兴诚混合A</t>
+          <t>诺安灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>94.70</t>
+          <t>11.19</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>85.10</t>
+          <t>79.23</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>6.5722</t>
+          <t>0.3570</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -4786,36 +5766,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>011130</t>
+          <t>519983</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>广发兴诚混合C</t>
+          <t>长信量化先锋混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>52.52</t>
+          <t>12.72</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>85.10</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>6.94</t>
+          <t>2.51</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>3.6449</t>
+          <t>0.3193</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -4824,36 +5804,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010160</t>
+          <t>202027</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>广发高端制造股票C</t>
+          <t>南方高端装备灵活配置混合A</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>16.04</t>
+          <t>4.93</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>89.43</t>
+          <t>93.53</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.19</t>
+          <t>5.81</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.8325</t>
+          <t>0.2864</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6">
@@ -4872,26 +5852,26 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.87</t>
+          <t>4.64</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>87.15</t>
+          <t>85.87</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>5.10</t>
+          <t>4.27</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.2484</t>
+          <t>0.1981</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7">
@@ -4900,36 +5880,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>516950</t>
+          <t>008134</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
+          <t>鹏华优选价值股票</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>1.84</t>
+          <t>3.01</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>96.47</t>
+          <t>95.39</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>5.82</t>
+          <t>5.39</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.1071</t>
+          <t>0.1622</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8">
@@ -4938,36 +5918,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>008347</t>
+          <t>001277</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合A</t>
+          <t>博时国企改革主题股票</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>6.83</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>88.31</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>2.21</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.0491</t>
+          <t>0.1509</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9">
@@ -4976,36 +5956,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>006429</t>
+          <t>009188</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>诺安恒鑫混合</t>
+          <t>鹏华股息精选混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>1.32</t>
+          <t>2.23</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>89.97</t>
+          <t>95.63</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>3.50</t>
+          <t>6.51</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.0462</t>
+          <t>0.1452</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
@@ -5014,36 +5994,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>515870</t>
+          <t>002095</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>嘉实中证先进制造100策略ETF</t>
+          <t>博时新收益灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.43</t>
+          <t>4.43</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>98.26</t>
+          <t>63.71</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>5.99</t>
+          <t>3.13</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.0258</t>
+          <t>0.1387</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11">
@@ -5052,36 +6032,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>161037</t>
+          <t>006022</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
+          <t>富国大盘价值量化精选混合</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>1.05</t>
+          <t>6.07</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>93.94</t>
+          <t>94.09</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.90</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.0200</t>
+          <t>0.1141</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12">
@@ -5090,36 +6070,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>009700</t>
+          <t>080005</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>长江添利混合A</t>
+          <t>长盛量化红利混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>1.70</t>
+          <t>1.59</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>92.52</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>4.97</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.0129</t>
+          <t>0.0790</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13">
@@ -5128,32 +6108,32 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>008348</t>
+          <t>000877</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>中信建投价值甄选混合C</t>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.28</t>
+          <t>5.69</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>79.54</t>
+          <t>92.67</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2.70</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0076</t>
+          <t>0.0757</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -5166,1814 +6146,834 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>009701</t>
+          <t>006429</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>长江添利混合C</t>
+          <t>诺安恒鑫混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>0.75</t>
+          <t>1.83</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>21.08</t>
+          <t>89.13</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>0.76</t>
+          <t>3.80</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0057</t>
+          <t>0.0695</t>
         </is>
       </c>
       <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
         <v>10</v>
       </c>
     </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009686</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>15.11</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4216</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
         <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>516950</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>7.31</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>97.87</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.69</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3428</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>4.32</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.80</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.45</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1922</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>67.95</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0917</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>2.59</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>86.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.32</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0860</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>2.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.11</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.61</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0726</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>1.61</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>87.42</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.93</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0633</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>87.44</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0418</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.62</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>98.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>5.25</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0326</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>80.22</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0242</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>009687</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>华夏磐利一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.48</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>63.68</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>2.79</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0134</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>67.95</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>3.92</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>516950</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.16</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.99</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.17</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4237</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>4.52</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>92.05</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1907</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>009500</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>63.00</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0763</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.61</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0554</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.50</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>98.62</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>3.98</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0199</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>009501</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>国寿安保高股息混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>63.00</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>3.26</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0013</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>8</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>516950</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>10.41</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>97.55</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.22</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.4393</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>3.67</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>84.64</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>5.22</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.1916</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>2.44</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>87.44</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>5.61</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.1369</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>006977</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>农银汇理海棠三年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>63.10</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.45</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.1137</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.29</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.68</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.53</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0584</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.82</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>85.51</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.78</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0392</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>67.15</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0254</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.42</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>98.79</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.40</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0185</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.33</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>67.15</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.17</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0105</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>090011</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>大成核心双动力混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>93.14</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>2.05</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0070</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>161718</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>招商沪深300高贝塔指数</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.20</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>94.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0027</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>74.84</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0020</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>1</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金规模</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>516950</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>银华中证基建交易型开放式指数证券投资基金</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>14.99</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>98.39</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>3.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.5351</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>000646</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>66.39</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0846</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>001412</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>1.39</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>65.16</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0634</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.43</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>98.80</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>2.95</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0127</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>007827</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华润元大量化优选混合C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.28</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>66.39</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0124</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>002112</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>德邦鑫星价值灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>0.27</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>65.16</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>4.56</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0123</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>519165</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>新华鑫利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>45.16</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>3.51</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0018</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:D8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>7</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.72</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>12</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>6</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.77</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.38</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>13</v>
-      </c>
-      <c r="D6" t="n">
-        <v>22.94</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>74</v>
-      </c>
-      <c r="D7" t="n">
-        <v>36.46</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>34</v>
-      </c>
-      <c r="D8" t="n">
-        <v>3.06</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D2" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D3" t="n">
-        <v>1.05</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.77</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D5" t="n">
-        <v>1.38</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D6" t="n">
-        <v>22.94</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D7" t="n">
-        <v>36.46</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>74</v>
+      </c>
+      <c r="D8" t="n">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>34</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>3.06</v>
       </c>
     </row>
@@ -600,6 +617,404 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>11.07</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>97.93</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4140</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.03</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.73</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1268</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>98.76</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1218</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>004260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>德邦稳盈增长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>88.81</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0667</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001412</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>73.62</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0087</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>002112</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>德邦鑫星价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>25.03</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -921,7 +1336,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1433,7 +1848,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1717,7 +2132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2229,7 +2644,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2779,7 +3194,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5633,7 +6048,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
+++ b/数据整理/stocks/A股/深证主板/000157-中联重科.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="D2" t="n">
-        <v>0.86</v>
+        <v>0.6899999999999999</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D3" t="n">
-        <v>0.72</v>
+        <v>0.86</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="D4" t="n">
-        <v>1.05</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D5" t="n">
-        <v>0.77</v>
+        <v>1.05</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D6" t="n">
-        <v>1.38</v>
+        <v>0.77</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D7" t="n">
-        <v>22.94</v>
+        <v>1.38</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>74</v>
+        <v>13</v>
       </c>
       <c r="D8" t="n">
-        <v>36.46</v>
+        <v>22.94</v>
       </c>
     </row>
     <row r="9">
@@ -601,14 +602,1378 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>74</v>
+      </c>
+      <c r="D9" t="n">
+        <v>36.46</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>34</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>3.06</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>009023</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>鹏华稳健回报混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>6.96</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.69</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.3591</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>320006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>诺安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.19</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.3570</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519983</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>12.72</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3193</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.2864</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>320011</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>诺安中小盘精选混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>85.87</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1981</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008134</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏华优选价值股票</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>95.39</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.39</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1622</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>001277</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博时国企改革主题股票</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>6.83</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1509</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>鹏华股息精选混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>95.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>6.51</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1452</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002095</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1387</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>006022</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>富国大盘价值量化精选混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>080005</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长盛量化红利混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.52</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.97</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0790</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000877</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0757</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>006429</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>诺安恒鑫混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0695</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001074</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0687</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>002804</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>79.36</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0604</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>001528</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>诺安先进制造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.11</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>320015</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>诺安行业轮动混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.72</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0595</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>004206</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华商元亨灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.98</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>30.84</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>0.94</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0562</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0430</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010029</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.15</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0329</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001226</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>中邮稳健添利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>94.00</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>002096</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>博时新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>63.71</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0250</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>515870</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>嘉实中证先进制造100策略ETF</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>99.65</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>620001</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>金元顺安宝石动力混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>60.39</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0240</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>006926</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>006034</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>富国MSCI中国A股国际通指数增强</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0231</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>161039</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国中证1000指数增强LOF</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.25</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>161037</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国中证高端制造指数增强（LOF）</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.99</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.43</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0158</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>002496</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0130</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>002495</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源量化优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.24</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0119</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010030</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国稳进回报12个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>20.39</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0074</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011463</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>86.67</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>004221</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长信量化先锋混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.53</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>006531</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.20</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0001</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -617,6 +1982,290 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>516950</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>银华中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>10.34</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>98.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.4301</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>159619</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国泰中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>99.23</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1315</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>159635</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏中证基建ETF</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1230</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>000646</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0066</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519165</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>新华鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>22.54</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007827</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华润元大量化优选混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>65.16</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1014,7 +2663,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1336,7 +2985,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1848,7 +3497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2132,7 +3781,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2644,7 +4293,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3194,7 +4843,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6046,1352 +7695,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H35"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="2" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="2" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="2" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="2" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>009023</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>鹏华稳健回报混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>6.96</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>93.69</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>5.16</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.3591</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>320006</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>诺安灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>11.19</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>79.23</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.3570</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519983</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>12.72</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.3193</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>202027</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.2864</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>320011</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>诺安中小盘精选混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>4.64</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>85.87</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.27</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.1981</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>008134</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>鹏华优选价值股票</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>3.01</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>95.39</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>5.39</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.1622</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>001277</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>博时国企改革主题股票</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>6.83</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>88.31</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.21</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.1509</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>009188</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>鹏华股息精选混合</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>2.23</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>95.63</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>6.51</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1452</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>002095</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>4.43</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1387</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>006022</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>富国大盘价值量化精选混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>6.07</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>94.09</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.88</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1141</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>080005</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>长盛量化红利混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>1.59</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>92.52</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>4.97</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0790</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>000877</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.69</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.67</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.33</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0757</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>006429</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>诺安恒鑫混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>3.80</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.0695</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>001074</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化驱动灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0687</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>002804</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化对冲稳健收益定期开放混合</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>4.87</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>79.36</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.24</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0604</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>001528</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>诺安先进制造股票</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>90.11</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>3.40</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>320015</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>诺安行业轮动混合</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>1.72</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>89.13</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0595</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>004206</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>华商元亨灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>5.98</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>30.84</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>0.94</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0562</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>005207</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>南方高端装备灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.74</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>5.81</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>0.0430</t>
-        </is>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>19</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>010029</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合A</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>7.15</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>0.0329</t>
-        </is>
-      </c>
-      <c r="H21" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="2" t="n">
-        <v>20</v>
-      </c>
-      <c r="B22" t="inlineStr">
-        <is>
-          <t>001226</t>
-        </is>
-      </c>
-      <c r="C22" t="inlineStr">
-        <is>
-          <t>中邮稳健添利灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>94.00</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>4.60</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>0.0299</t>
-        </is>
-      </c>
-      <c r="H22" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="2" t="n">
-        <v>21</v>
-      </c>
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>002096</t>
-        </is>
-      </c>
-      <c r="C23" t="inlineStr">
-        <is>
-          <t>博时新收益灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>0.80</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>63.71</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>3.13</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>0.0250</t>
-        </is>
-      </c>
-      <c r="H23" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="2" t="n">
-        <v>22</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>515870</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>嘉实中证先进制造100策略ETF</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>0.53</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>99.65</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>4.67</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>0.0248</t>
-        </is>
-      </c>
-      <c r="H24" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="2" t="n">
-        <v>23</v>
-      </c>
-      <c r="B25" t="inlineStr">
-        <is>
-          <t>620001</t>
-        </is>
-      </c>
-      <c r="C25" t="inlineStr">
-        <is>
-          <t>金元顺安宝石动力混合</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>0.90</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>60.39</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>2.67</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>0.0240</t>
-        </is>
-      </c>
-      <c r="H25" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" s="2" t="n">
-        <v>24</v>
-      </c>
-      <c r="B26" t="inlineStr">
-        <is>
-          <t>006926</t>
-        </is>
-      </c>
-      <c r="C26" t="inlineStr">
-        <is>
-          <t>长城量化精选股票A</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>0.41</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>0.0232</t>
-        </is>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" s="2" t="n">
-        <v>25</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>006034</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>富国MSCI中国A股国际通指数增强</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>89.35</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>0.0231</t>
-        </is>
-      </c>
-      <c r="H27" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="2" t="n">
-        <v>26</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>161039</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>富国中证1000指数增强LOF</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>1.98</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>93.25</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>1.05</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>0.0208</t>
-        </is>
-      </c>
-      <c r="H28" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="2" t="n">
-        <v>27</v>
-      </c>
-      <c r="B29" t="inlineStr">
-        <is>
-          <t>161037</t>
-        </is>
-      </c>
-      <c r="C29" t="inlineStr">
-        <is>
-          <t>富国中证高端制造指数增强（LOF）</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>93.99</t>
-        </is>
-      </c>
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>2.43</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>0.0158</t>
-        </is>
-      </c>
-      <c r="H29" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" s="2" t="n">
-        <v>28</v>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>002496</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>0.71</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>0.0130</t>
-        </is>
-      </c>
-      <c r="H30" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="2" t="n">
-        <v>29</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>002495</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>前海开源量化优选灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>0.65</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>90.24</t>
-        </is>
-      </c>
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>1.83</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>0.0119</t>
-        </is>
-      </c>
-      <c r="H31" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="2" t="n">
-        <v>30</v>
-      </c>
-      <c r="B32" t="inlineStr">
-        <is>
-          <t>010030</t>
-        </is>
-      </c>
-      <c r="C32" t="inlineStr">
-        <is>
-          <t>富国稳进回报12个月持有期混合C</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>20.39</t>
-        </is>
-      </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>0.46</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
-        <is>
-          <t>0.0074</t>
-        </is>
-      </c>
-      <c r="H32" t="n">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="2" t="n">
-        <v>31</v>
-      </c>
-      <c r="B33" t="inlineStr">
-        <is>
-          <t>011463</t>
-        </is>
-      </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>长城量化精选股票C</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>86.67</t>
-        </is>
-      </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>5.67</t>
-        </is>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>0.0006</t>
-        </is>
-      </c>
-      <c r="H33" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="2" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="inlineStr">
-        <is>
-          <t>004221</t>
-        </is>
-      </c>
-      <c r="C34" t="inlineStr">
-        <is>
-          <t>长信量化先锋混合C</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>0.02</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>93.53</t>
-        </is>
-      </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0005</t>
-        </is>
-      </c>
-      <c r="H34" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="2" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>006531</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>华泰柏瑞量化驱动灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>0.01</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>93.20</t>
-        </is>
-      </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>1.42</t>
-        </is>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>0.0001</t>
-        </is>
-      </c>
-      <c r="H35" t="n">
-        <v>7</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>